--- a/tests/testthat/testdata/result_ttest.xlsx
+++ b/tests/testthat/testdata/result_ttest.xlsx
@@ -599,10 +599,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
+        <v>40866162</v>
+      </c>
+      <c r="D2" t="n">
         <v>34910128</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E2" t="n">
         <v>33763808</v>
@@ -617,10 +617,10 @@
         <v>39106931</v>
       </c>
       <c r="I2" t="n">
+        <v>25.2844034213071</v>
+      </c>
+      <c r="J2" t="n">
         <v>25.0571423108366</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K2" t="n">
         <v>25.0089742896103</v>
@@ -634,41 +634,41 @@
       <c r="N2" t="n">
         <v>25.2209209861477</v>
       </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
+      <c r="O2" t="n">
+        <v>25.2992826333767</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25.1168400072513</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.91835833608368</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.152298309114685</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.761491545573424</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.13180608072854</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.883543583151899</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.122879738982177</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.487764991232885</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -679,10 +679,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="n">
+        <v>200506080</v>
+      </c>
+      <c r="D3" t="n">
         <v>228724928</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E3" t="n">
         <v>230557560</v>
@@ -697,10 +697,10 @@
         <v>233899104</v>
       </c>
       <c r="I3" t="n">
+        <v>27.5790707436736</v>
+      </c>
+      <c r="J3" t="n">
         <v>27.769038368146</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K3" t="n">
         <v>27.7805517317049</v>
@@ -714,41 +714,41 @@
       <c r="N3" t="n">
         <v>27.8013110942513</v>
       </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
+      <c r="O3" t="n">
+        <v>27.7551588118348</v>
+      </c>
+      <c r="P3" t="n">
+        <v>27.7095536145082</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.628467294661039</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.575887683391777</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.03052639735946</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.970377859861055</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.190521784441083</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.281732179094314</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
@@ -759,10 +759,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
+        <v>26963010</v>
+      </c>
+      <c r="D4" t="n">
         <v>25142570</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E4" t="n">
         <v>24140170</v>
@@ -777,10 +777,10 @@
         <v>74038624</v>
       </c>
       <c r="I4" t="n">
+        <v>24.6844782241466</v>
+      </c>
+      <c r="J4" t="n">
         <v>24.5836287895766</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K4" t="n">
         <v>24.5249325000929</v>
@@ -794,41 +794,41 @@
       <c r="N4" t="n">
         <v>26.1417747473344</v>
       </c>
-      <c r="O4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
+      <c r="O4" t="n">
+        <v>25.0746667019424</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24.5976798379387</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.882504881863556</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.469411733074466</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.61385302131594</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.619635113478052</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-1.81599888633545</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.76997261434286</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -853,8 +853,8 @@
       <c r="G5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
+      <c r="H5" t="n">
+        <v>51412512</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
@@ -871,8 +871,8 @@
       <c r="M5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N5" t="e">
-        <v>#N/A</v>
+      <c r="N5" t="n">
+        <v>25.6156161676712</v>
       </c>
       <c r="O5" t="e">
         <v>#N/A</v>
@@ -999,10 +999,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="n">
+        <v>21140340</v>
+      </c>
+      <c r="D7" t="n">
         <v>23729240</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E7" t="n">
         <v>22417890</v>
@@ -1017,10 +1017,10 @@
         <v>23442920</v>
       </c>
       <c r="I7" t="n">
+        <v>24.333495243977</v>
+      </c>
+      <c r="J7" t="n">
         <v>24.5001625588526</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K7" t="n">
         <v>24.4181471604731</v>
@@ -1034,41 +1034,41 @@
       <c r="N7" t="n">
         <v>24.4826489441743</v>
       </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
+      <c r="O7" t="n">
+        <v>24.4045916014765</v>
+      </c>
+      <c r="P7" t="n">
+        <v>24.4172683211009</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.188190056380374</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.859892871192765</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.991205494871482</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.00887253468027</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.199732228740137</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.174378789491213</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
@@ -1079,10 +1079,10 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
+        <v>29319660</v>
+      </c>
+      <c r="D8" t="n">
         <v>36068288</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E8" t="n">
         <v>38500928</v>
@@ -1097,10 +1097,10 @@
         <v>40147352</v>
       </c>
       <c r="I8" t="n">
+        <v>24.8053650378348</v>
+      </c>
+      <c r="J8" t="n">
         <v>25.1042276106936</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K8" t="n">
         <v>25.1983898841714</v>
@@ -1114,41 +1114,41 @@
       <c r="N8" t="n">
         <v>25.2588014992156</v>
       </c>
-      <c r="O8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1</v>
+      <c r="O8" t="n">
+        <v>25.2308048413939</v>
+      </c>
+      <c r="P8" t="n">
+        <v>25.0359941775666</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.59667575311067</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.238062091527051</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.793540305090171</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.13751585877202</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.879108622783973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.279532260186281</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.669153587840989</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -1159,10 +1159,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="n">
+        <v>34100360</v>
+      </c>
+      <c r="D9" t="n">
         <v>37990528</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E9" t="n">
         <v>32654220</v>
@@ -1177,10 +1177,10 @@
         <v>33104830</v>
       </c>
       <c r="I9" t="n">
+        <v>25.0232836341787</v>
+      </c>
+      <c r="J9" t="n">
         <v>25.1791364272197</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K9" t="n">
         <v>24.9607661117155</v>
@@ -1194,41 +1194,41 @@
       <c r="N9" t="n">
         <v>24.9805383860383</v>
       </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
+      <c r="O9" t="n">
+        <v>25.0624917054832</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25.054395391038</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.082707818416188</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.00620594137914</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.993832334789599</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.26524486500591</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.281437493896425</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
@@ -1239,10 +1239,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
+        <v>2663829782</v>
+      </c>
+      <c r="D10" t="n">
         <v>2590670618</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E10" t="n">
         <v>2707158182</v>
@@ -1257,10 +1257,10 @@
         <v>2497670980</v>
       </c>
       <c r="I10" t="n">
+        <v>31.3108547515192</v>
+      </c>
+      <c r="J10" t="n">
         <v>31.2706784546122</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K10" t="n">
         <v>31.3341320421374</v>
@@ -1274,41 +1274,41 @@
       <c r="N10" t="n">
         <v>31.2179362961901</v>
       </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
+      <c r="O10" t="n">
+        <v>31.2119217219633</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31.3052217494229</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-4.40168491352323</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0199533891722438</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.199533891722438</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.937269329894508</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.06692918257824</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.159248621463293</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.0273514334559108</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
@@ -1318,11 +1318,11 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="n">
         <v>1495972</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -1336,11 +1336,11 @@
       <c r="H11" t="n">
         <v>1490940</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="n">
         <v>20.5126517419834</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -1399,10 +1399,10 @@
         <v>47</v>
       </c>
       <c r="C12" t="n">
+        <v>36614408</v>
+      </c>
+      <c r="D12" t="n">
         <v>52227550</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E12" t="n">
         <v>52181250</v>
@@ -1417,10 +1417,10 @@
         <v>49541580</v>
       </c>
       <c r="I12" t="n">
+        <v>25.1259081340278</v>
+      </c>
+      <c r="J12" t="n">
         <v>25.6383076925291</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K12" t="n">
         <v>25.6370281684896</v>
@@ -1434,41 +1434,41 @@
       <c r="N12" t="n">
         <v>25.5621365445402</v>
       </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1</v>
+      <c r="O12" t="n">
+        <v>25.526739600459</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25.4670813316822</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.347529614872081</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.760632790466221</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.02854192623387</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.972250109105049</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.661741153627516</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.781057691181139</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
@@ -1559,10 +1559,10 @@
         <v>51</v>
       </c>
       <c r="C14" t="n">
+        <v>49490460</v>
+      </c>
+      <c r="D14" t="n">
         <v>49514448</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E14" t="n">
         <v>50004128</v>
@@ -1577,10 +1577,10 @@
         <v>47302128</v>
       </c>
       <c r="I14" t="n">
+        <v>25.5606471159261</v>
+      </c>
+      <c r="J14" t="n">
         <v>25.5613462200416</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K14" t="n">
         <v>25.5755438630849</v>
@@ -1594,41 +1594,41 @@
       <c r="N14" t="n">
         <v>25.4954017523426</v>
       </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
+      <c r="O14" t="n">
+        <v>25.570656813745</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25.5658457330176</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.120093682070113</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.915103230244877</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.00408756419309</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.99592907597021</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.162867450169104</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.172489611623869</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15">
@@ -1638,11 +1638,11 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="n">
         <v>15940000</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -1656,11 +1656,11 @@
       <c r="H15" t="n">
         <v>13688880</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="n">
         <v>23.9261482935399</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -1719,10 +1719,10 @@
         <v>55</v>
       </c>
       <c r="C16" t="n">
+        <v>64759632</v>
+      </c>
+      <c r="D16" t="n">
         <v>53367728</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E16" t="n">
         <v>60332520</v>
@@ -1737,10 +1737,10 @@
         <v>60534832</v>
       </c>
       <c r="I16" t="n">
+        <v>25.9485914516852</v>
+      </c>
+      <c r="J16" t="n">
         <v>25.6694642576456</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="K16" t="n">
         <v>25.8464325070695</v>
@@ -1754,41 +1754,41 @@
       <c r="N16" t="n">
         <v>25.8512621783888</v>
       </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
+      <c r="O16" t="n">
+        <v>25.8567947696956</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25.8214960721334</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.408847988878684</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.715351772062022</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.938111873128734</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.02192716928869</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.978543315074051</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.275304872879686</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.34590226800396</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/testdata/result_ttest.xlsx
+++ b/tests/testthat/testdata/result_ttest.xlsx
@@ -92,94 +92,94 @@
     <t xml:space="preserve">NA_reason_code</t>
   </si>
   <si>
-    <t xml:space="preserve">AIIEEYLHLNDMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0A0J9YUS5/E9PVC5/E9PVC6/E9Q9E1/Q6NZJ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAFHDISPQAPTHFLVIPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0R1E3/P70349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGWEYLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8R404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSLQDPPNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O70475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPPPTDPYGRPPPYDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3BJ30/H3BJW3/H3BKW0/Q6NVF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSQVFSTAADGQTQVEIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P38647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQISHEAAACITALR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0A087WPL5/E9QNN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLVDDIGDVTITNDGATILK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2Z483/P11983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLIVGVNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3YZ68/D3Z3I8/P10126/P62631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGEDMMHPLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9QYJ0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPLAQMEEERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E9Q1G8/E9Q9F5/O55131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TILTLTGVSSLEDVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8CHP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGEATETALTCLVEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ATS4/B1ATS5/E9Q559/O55143/Q64518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WYLTLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9CRA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAALSDQGLDIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9ET54</t>
+    <t xml:space="preserve">AALNALQPPEFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q78T54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSSHHPGIAEFPSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEAHPNDLYVEGLPENIPFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8/Q9ESZ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPNSVLGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8BH64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQQDIEAVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q99M74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELERPGGNEITR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQEVVANLQYDDGSGMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3U1J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNKDSHSLTTNIMEILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVVIAADGVLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9ESL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGQDGLLSVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P57759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QHIEKAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1/Q91ZU6/S4R1P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLDETPDGRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q61586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEADIAGHGQEVLIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminant_MYG_HORSE/P68082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGVTVAQTTMEPHLLEACVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0A0A6YY08/D3Z158/Q8BML9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVAGVANALAHK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042/P68871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTPLYPFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9DCU6</t>
   </si>
 </sst>
 </file>
@@ -599,67 +599,67 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>40866162</v>
+        <v>82163720</v>
       </c>
       <c r="D2" t="n">
-        <v>34910128</v>
+        <v>81341984</v>
       </c>
       <c r="E2" t="n">
-        <v>33763808</v>
+        <v>68332368</v>
       </c>
       <c r="F2" t="n">
-        <v>41557998</v>
+        <v>80992784</v>
       </c>
       <c r="G2" t="n">
-        <v>43313220</v>
+        <v>76432360</v>
       </c>
       <c r="H2" t="n">
-        <v>39106931</v>
+        <v>68052232</v>
       </c>
       <c r="I2" t="n">
-        <v>25.2844034213071</v>
+        <v>26.2919981660241</v>
       </c>
       <c r="J2" t="n">
-        <v>25.0571423108366</v>
+        <v>26.2774968439968</v>
       </c>
       <c r="K2" t="n">
-        <v>25.0089742896103</v>
+        <v>26.026065787258</v>
       </c>
       <c r="L2" t="n">
-        <v>25.3086228202573</v>
+        <v>26.2712900419476</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3683040937251</v>
+        <v>26.1876802413107</v>
       </c>
       <c r="N2" t="n">
-        <v>25.2209209861477</v>
+        <v>26.0201391447141</v>
       </c>
       <c r="O2" t="n">
-        <v>25.2992826333767</v>
+        <v>26.1597031426574</v>
       </c>
       <c r="P2" t="n">
-        <v>25.1168400072513</v>
+        <v>26.1985202657596</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91835833608368</v>
+        <v>-0.34170296517337</v>
       </c>
       <c r="R2" t="n">
-        <v>0.152298309114685</v>
+        <v>0.750163496728011</v>
       </c>
       <c r="S2" t="n">
-        <v>0.761491545573424</v>
+        <v>0.750163496728011</v>
       </c>
       <c r="T2" t="n">
-        <v>1.13180608072854</v>
+        <v>0.972564057554792</v>
       </c>
       <c r="U2" t="n">
-        <v>0.883543583151899</v>
+        <v>1.02820990785346</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.122879738982177</v>
+        <v>-0.357230651763908</v>
       </c>
       <c r="W2" t="n">
-        <v>0.487764991232885</v>
+        <v>0.279596405559561</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
@@ -679,67 +679,67 @@
         <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>200506080</v>
+        <v>3066240866</v>
       </c>
       <c r="D3" t="n">
-        <v>228724928</v>
+        <v>3523696082</v>
       </c>
       <c r="E3" t="n">
-        <v>230557560</v>
+        <v>3536983698</v>
       </c>
       <c r="F3" t="n">
-        <v>228792416</v>
+        <v>1129097258</v>
       </c>
       <c r="G3" t="n">
-        <v>217238016</v>
+        <v>1275470530</v>
       </c>
       <c r="H3" t="n">
-        <v>233899104</v>
+        <v>1287385068</v>
       </c>
       <c r="I3" t="n">
-        <v>27.5790707436736</v>
+        <v>31.513823885143</v>
       </c>
       <c r="J3" t="n">
-        <v>27.769038368146</v>
+        <v>31.7144423514854</v>
       </c>
       <c r="K3" t="n">
-        <v>27.7805517317049</v>
+        <v>31.7198724236418</v>
       </c>
       <c r="L3" t="n">
-        <v>27.769463989622</v>
+        <v>30.0725226160856</v>
       </c>
       <c r="M3" t="n">
-        <v>27.6947013516311</v>
+        <v>30.2483824195562</v>
       </c>
       <c r="N3" t="n">
-        <v>27.8013110942513</v>
+        <v>30.261796494649</v>
       </c>
       <c r="O3" t="n">
-        <v>27.7551588118348</v>
+        <v>30.1942338434303</v>
       </c>
       <c r="P3" t="n">
-        <v>27.7095536145082</v>
+        <v>31.6493795534234</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.628467294661039</v>
+        <v>-15.9581810733443</v>
       </c>
       <c r="R3" t="n">
-        <v>0.575887683391777</v>
+        <v>0.0000971766906723154</v>
       </c>
       <c r="S3" t="n">
-        <v>0.938111873128734</v>
+        <v>0.000388706762689261</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03052639735946</v>
+        <v>0.364568162925052</v>
       </c>
       <c r="U3" t="n">
-        <v>0.970377859861055</v>
+        <v>2.74297127861267</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.190521784441083</v>
+        <v>-1.70943262583501</v>
       </c>
       <c r="W3" t="n">
-        <v>0.281732179094314</v>
+        <v>-1.20085879415126</v>
       </c>
       <c r="X3" t="n">
         <v>3</v>
@@ -758,77 +758,77 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
-        <v>26963010</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25142570</v>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E4" t="n">
-        <v>24140170</v>
+        <v>18573680</v>
       </c>
       <c r="F4" t="n">
-        <v>22372790</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26638020</v>
+        <v>14150710</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H4" t="n">
-        <v>74038624</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24.6844782241466</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.5836287895766</v>
+        <v>13375460</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K4" t="n">
-        <v>24.5249325000929</v>
+        <v>24.1467563487239</v>
       </c>
       <c r="L4" t="n">
-        <v>24.4152418431914</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24.6669835153016</v>
+        <v>23.7543711050978</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N4" t="n">
-        <v>26.1417747473344</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25.0746667019424</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24.5976798379387</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.882504881863556</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.469411733074466</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.938111873128734</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.61385302131594</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.619635113478052</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-1.81599888633545</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.76997261434286</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="e">
-        <v>#N/A</v>
+        <v>23.673085172795</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -838,77 +838,77 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
+      <c r="C5" t="n">
+        <v>30212320</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28272400</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30878930</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29156000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30156110</v>
       </c>
       <c r="H5" t="n">
-        <v>51412512</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M5" t="e">
-        <v>#N/A</v>
+        <v>27431330</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.8486336368898</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.7528910207139</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.8801194261945</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.7972894697474</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.845947003771</v>
       </c>
       <c r="N5" t="n">
-        <v>25.6156161676712</v>
-      </c>
-      <c r="O5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
+        <v>24.70932123674</v>
+      </c>
+      <c r="O5" t="n">
+        <v>24.7841859034195</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24.8272146945994</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.777588993928715</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.480315947270903</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.576379136725083</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.970679241503677</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.03020643405426</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.196784210992273</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.110726628632381</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
@@ -918,77 +918,77 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
+      <c r="C6" t="n">
+        <v>481943616</v>
+      </c>
+      <c r="D6" t="n">
+        <v>421780896</v>
       </c>
       <c r="E6" t="n">
-        <v>26402860</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>462450400</v>
+      </c>
+      <c r="F6" t="n">
+        <v>469830208</v>
       </c>
       <c r="G6" t="n">
-        <v>26541960</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
+        <v>428080992</v>
+      </c>
+      <c r="H6" t="n">
+        <v>444448608</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.844289130294</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.6519185107734</v>
       </c>
       <c r="K6" t="n">
-        <v>24.6541908772928</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#N/A</v>
+        <v>28.7847233971358</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.807564234328</v>
       </c>
       <c r="M6" t="n">
-        <v>24.661771575156</v>
-      </c>
-      <c r="N6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
+        <v>28.6733085363386</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.7274413676478</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28.7361047127714</v>
+      </c>
+      <c r="P6" t="n">
+        <v>28.7603103460677</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.351076150329245</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.745407539024654</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.750163496728011</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.982568041770627</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01774122247856</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.225834749522636</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.177423482930126</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -996,70 +996,70 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>21140340</v>
+        <v>7278700264</v>
       </c>
       <c r="D7" t="n">
-        <v>23729240</v>
+        <v>7485191088</v>
       </c>
       <c r="E7" t="n">
-        <v>22417890</v>
+        <v>7681951140</v>
       </c>
       <c r="F7" t="n">
-        <v>22312750</v>
+        <v>2792816656</v>
       </c>
       <c r="G7" t="n">
-        <v>20940040</v>
+        <v>2748498968</v>
       </c>
       <c r="H7" t="n">
-        <v>23442920</v>
+        <v>2506603733</v>
       </c>
       <c r="I7" t="n">
-        <v>24.333495243977</v>
+        <v>32.7610337096177</v>
       </c>
       <c r="J7" t="n">
-        <v>24.5001625588526</v>
+        <v>32.8013920010236</v>
       </c>
       <c r="K7" t="n">
-        <v>24.4181471604731</v>
+        <v>32.8388256418199</v>
       </c>
       <c r="L7" t="n">
-        <v>24.411364997913</v>
+        <v>31.3790737200632</v>
       </c>
       <c r="M7" t="n">
-        <v>24.3197608623421</v>
+        <v>31.3559967916623</v>
       </c>
       <c r="N7" t="n">
-        <v>24.4826489441743</v>
+        <v>31.2230867936673</v>
       </c>
       <c r="O7" t="n">
-        <v>24.4045916014765</v>
+        <v>31.3193857684643</v>
       </c>
       <c r="P7" t="n">
-        <v>24.4172683211009</v>
+        <v>32.8004171174871</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.188190056380374</v>
+        <v>-27.6584971772455</v>
       </c>
       <c r="R7" t="n">
-        <v>0.859892871192765</v>
+        <v>0.00016197135809791</v>
       </c>
       <c r="S7" t="n">
-        <v>0.938111873128734</v>
+        <v>0.00048591407429373</v>
       </c>
       <c r="T7" t="n">
-        <v>0.991205494871482</v>
+        <v>0.358548330715071</v>
       </c>
       <c r="U7" t="n">
-        <v>1.00887253468027</v>
+        <v>2.78902428022925</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.199732228740137</v>
+        <v>-1.65788298939722</v>
       </c>
       <c r="W7" t="n">
-        <v>0.174378789491213</v>
+        <v>-1.30417970864841</v>
       </c>
       <c r="X7" t="n">
         <v>3</v>
@@ -1073,153 +1073,153 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" t="n">
-        <v>29319660</v>
+        <v>4588955</v>
       </c>
       <c r="D8" t="n">
-        <v>36068288</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38500928</v>
-      </c>
-      <c r="F8" t="n">
-        <v>37816312</v>
+        <v>5071469</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G8" t="n">
-        <v>40211580</v>
+        <v>5065608</v>
       </c>
       <c r="H8" t="n">
-        <v>40147352</v>
+        <v>6596751</v>
       </c>
       <c r="I8" t="n">
-        <v>24.8053650378348</v>
+        <v>22.1297342288538</v>
       </c>
       <c r="J8" t="n">
-        <v>25.1042276106936</v>
-      </c>
-      <c r="K8" t="n">
-        <v>25.1983898841714</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25.1725053368924</v>
+        <v>22.2739722676464</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>25.2611076880738</v>
+        <v>22.2723040083293</v>
       </c>
       <c r="N8" t="n">
-        <v>25.2588014992156</v>
-      </c>
-      <c r="O8" t="n">
-        <v>25.2308048413939</v>
-      </c>
-      <c r="P8" t="n">
-        <v>25.0359941775666</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.59667575311067</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.238062091527051</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.793540305090171</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.13751585877202</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.879108622783973</v>
-      </c>
-      <c r="V8" t="n">
-        <v>-0.279532260186281</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.669153587840989</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z8" t="e">
-        <v>#N/A</v>
+        <v>22.6533242195096</v>
+      </c>
+      <c r="O8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>34100360</v>
+        <v>547595080</v>
       </c>
       <c r="D9" t="n">
-        <v>37990528</v>
+        <v>631643705</v>
       </c>
       <c r="E9" t="n">
-        <v>32654220</v>
+        <v>587369272</v>
       </c>
       <c r="F9" t="n">
-        <v>33514620</v>
+        <v>85853120</v>
       </c>
       <c r="G9" t="n">
-        <v>38775700</v>
+        <v>276854236</v>
       </c>
       <c r="H9" t="n">
-        <v>33104830</v>
+        <v>250760174</v>
       </c>
       <c r="I9" t="n">
-        <v>25.0232836341787</v>
+        <v>29.0285342435116</v>
       </c>
       <c r="J9" t="n">
-        <v>25.1791364272197</v>
+        <v>29.2345357574112</v>
       </c>
       <c r="K9" t="n">
-        <v>24.9607661117155</v>
+        <v>29.1296925526936</v>
       </c>
       <c r="L9" t="n">
-        <v>24.9982872403888</v>
+        <v>26.3553672285698</v>
       </c>
       <c r="M9" t="n">
-        <v>25.2086494900226</v>
+        <v>28.0445513550486</v>
       </c>
       <c r="N9" t="n">
-        <v>24.9805383860383</v>
+        <v>27.9017329950573</v>
       </c>
       <c r="O9" t="n">
-        <v>25.0624917054832</v>
+        <v>27.4338838595586</v>
       </c>
       <c r="P9" t="n">
-        <v>25.054395391038</v>
+        <v>29.1309208512055</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.082707818416188</v>
+        <v>-3.11902609641416</v>
       </c>
       <c r="R9" t="n">
-        <v>0.938111873128734</v>
+        <v>0.0865885691066559</v>
       </c>
       <c r="S9" t="n">
-        <v>0.938111873128734</v>
+        <v>0.129882853659984</v>
       </c>
       <c r="T9" t="n">
-        <v>1.00620594137914</v>
+        <v>0.347257292057058</v>
       </c>
       <c r="U9" t="n">
-        <v>0.993832334789599</v>
+        <v>2.87970914613851</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.26524486500591</v>
+        <v>-3.98590158525834</v>
       </c>
       <c r="W9" t="n">
-        <v>0.281437493896425</v>
+        <v>0.591827601964585</v>
       </c>
       <c r="X9" t="n">
         <v>3</v>
@@ -1233,233 +1233,233 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>2663829782</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2590670618</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2707158182</v>
+        <v>28040580</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F10" t="n">
-        <v>2511590350</v>
+        <v>27419040</v>
       </c>
       <c r="G10" t="n">
-        <v>2452957074</v>
+        <v>25857140</v>
       </c>
       <c r="H10" t="n">
-        <v>2497670980</v>
+        <v>28986300</v>
       </c>
       <c r="I10" t="n">
-        <v>31.3108547515192</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31.2706784546122</v>
-      </c>
-      <c r="K10" t="n">
-        <v>31.3341320421374</v>
+        <v>24.7410128550176</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L10" t="n">
-        <v>31.2259540283201</v>
+        <v>24.7086747243336</v>
       </c>
       <c r="M10" t="n">
-        <v>31.1918748413799</v>
+        <v>24.6240593749359</v>
       </c>
       <c r="N10" t="n">
-        <v>31.2179362961901</v>
-      </c>
-      <c r="O10" t="n">
-        <v>31.2119217219633</v>
-      </c>
-      <c r="P10" t="n">
-        <v>31.3052217494229</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-4.40168491352323</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0199533891722438</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.199533891722438</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.937269329894508</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.06692918257824</v>
-      </c>
-      <c r="V10" t="n">
-        <v>-0.159248621463293</v>
-      </c>
-      <c r="W10" t="n">
-        <v>-0.0273514334559108</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
+        <v>24.7888678543779</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32303910</v>
       </c>
       <c r="D11" t="n">
-        <v>1495972</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
+        <v>34463860</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26115270</v>
       </c>
       <c r="F11" t="n">
-        <v>1488327</v>
+        <v>33808552</v>
       </c>
       <c r="G11" t="n">
-        <v>2110030</v>
+        <v>33915592</v>
       </c>
       <c r="H11" t="n">
-        <v>1490940</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#N/A</v>
+        <v>32038310</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.9452054605924</v>
       </c>
       <c r="J11" t="n">
-        <v>20.5126517419834</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
+        <v>25.0385809586644</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24.6383902837037</v>
       </c>
       <c r="L11" t="n">
-        <v>20.5052601048086</v>
+        <v>25.0108848920029</v>
       </c>
       <c r="M11" t="n">
-        <v>21.0088320803626</v>
+        <v>25.015445339626</v>
       </c>
       <c r="N11" t="n">
-        <v>20.5077907696389</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
+        <v>24.9332947127408</v>
+      </c>
+      <c r="O11" t="n">
+        <v>24.9865416481232</v>
+      </c>
+      <c r="P11" t="n">
+        <v>24.8740589009868</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.908714585901837</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.452031788613791</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.576379136725083</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.0740653406693</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.931042053155589</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.377419925350143</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.602385419622923</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>36614408</v>
+        <v>18786430</v>
       </c>
       <c r="D12" t="n">
-        <v>52227550</v>
+        <v>30472710</v>
       </c>
       <c r="E12" t="n">
-        <v>52181250</v>
+        <v>25962860</v>
       </c>
       <c r="F12" t="n">
-        <v>47326970</v>
+        <v>5528899</v>
       </c>
       <c r="G12" t="n">
-        <v>48179732</v>
+        <v>9171085</v>
       </c>
       <c r="H12" t="n">
-        <v>49541580</v>
+        <v>11303680</v>
       </c>
       <c r="I12" t="n">
-        <v>25.1259081340278</v>
+        <v>24.1631876005472</v>
       </c>
       <c r="J12" t="n">
-        <v>25.6383076925291</v>
+        <v>24.8610144717419</v>
       </c>
       <c r="K12" t="n">
-        <v>25.6370281684896</v>
+        <v>24.6299459797731</v>
       </c>
       <c r="L12" t="n">
-        <v>25.4961592240249</v>
+        <v>22.3985607866045</v>
       </c>
       <c r="M12" t="n">
-        <v>25.5219230328119</v>
+        <v>23.1286609936049</v>
       </c>
       <c r="N12" t="n">
-        <v>25.5621365445402</v>
+        <v>23.430289193794</v>
       </c>
       <c r="O12" t="n">
-        <v>25.526739600459</v>
+        <v>22.9858369913344</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4670813316822</v>
+        <v>24.5513826840207</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.347529614872081</v>
+        <v>-4.24630270257073</v>
       </c>
       <c r="R12" t="n">
-        <v>0.760632790466221</v>
+        <v>0.0175350393698638</v>
       </c>
       <c r="S12" t="n">
-        <v>0.938111873128734</v>
+        <v>0.0327485061130395</v>
       </c>
       <c r="T12" t="n">
-        <v>1.02854192623387</v>
+        <v>0.345692270878201</v>
       </c>
       <c r="U12" t="n">
-        <v>0.972250109105049</v>
+        <v>2.89274619145979</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.661741153627516</v>
+        <v>-2.65026387009572</v>
       </c>
       <c r="W12" t="n">
-        <v>0.781057691181139</v>
+        <v>-0.480827515276876</v>
       </c>
       <c r="X12" t="n">
         <v>3</v>
@@ -1473,153 +1473,153 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9321790</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14572240</v>
       </c>
       <c r="E13" t="n">
-        <v>5683145</v>
+        <v>17078710</v>
       </c>
       <c r="F13" t="n">
-        <v>9846832</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#N/A</v>
+        <v>2652279</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4551373</v>
       </c>
       <c r="H13" t="n">
-        <v>8586830</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+        <v>4976687</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23.1521755817321</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23.7967193253134</v>
       </c>
       <c r="K13" t="n">
-        <v>22.4382580941648</v>
+        <v>24.0256956727246</v>
       </c>
       <c r="L13" t="n">
-        <v>23.2312282133823</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+        <v>21.3388011135322</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.1178703940832</v>
       </c>
       <c r="N13" t="n">
-        <v>23.0336941992506</v>
-      </c>
-      <c r="O13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
+        <v>22.2467542234181</v>
+      </c>
+      <c r="O13" t="n">
+        <v>21.9011419103445</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23.6581968599234</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-4.55457613652403</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0105412069573365</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0252988966976076</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.297279093367932</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.36384233640788</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-2.83092461290411</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.68318528625357</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>49490460</v>
+        <v>300837422</v>
       </c>
       <c r="D14" t="n">
-        <v>49514448</v>
+        <v>314460372</v>
       </c>
       <c r="E14" t="n">
-        <v>50004128</v>
+        <v>303712450</v>
       </c>
       <c r="F14" t="n">
-        <v>51948072</v>
+        <v>49711832</v>
       </c>
       <c r="G14" t="n">
-        <v>50367920</v>
+        <v>50550568</v>
       </c>
       <c r="H14" t="n">
-        <v>47302128</v>
+        <v>50666080</v>
       </c>
       <c r="I14" t="n">
-        <v>25.5606471159261</v>
+        <v>28.1644087981084</v>
       </c>
       <c r="J14" t="n">
-        <v>25.5613462200416</v>
+        <v>28.2283029805874</v>
       </c>
       <c r="K14" t="n">
-        <v>25.5755438630849</v>
+        <v>28.1781308088131</v>
       </c>
       <c r="L14" t="n">
-        <v>25.6305668701715</v>
+        <v>25.5670859352373</v>
       </c>
       <c r="M14" t="n">
-        <v>25.5860018187207</v>
+        <v>25.5912239669467</v>
       </c>
       <c r="N14" t="n">
-        <v>25.4954017523426</v>
+        <v>25.5945168770599</v>
       </c>
       <c r="O14" t="n">
-        <v>25.570656813745</v>
+        <v>25.5842755930813</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5658457330176</v>
+        <v>28.190280862503</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.120093682070113</v>
+        <v>-122.591612267198</v>
       </c>
       <c r="R14" t="n">
-        <v>0.915103230244877</v>
+        <v>0.00000303217945650157</v>
       </c>
       <c r="S14" t="n">
-        <v>0.938111873128734</v>
+        <v>0.0000363861534780189</v>
       </c>
       <c r="T14" t="n">
-        <v>1.00408756419309</v>
+        <v>0.164229377186355</v>
       </c>
       <c r="U14" t="n">
-        <v>0.99592907597021</v>
+        <v>6.08904458588598</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.162867450169104</v>
+        <v>-2.67705870679462</v>
       </c>
       <c r="W14" t="n">
-        <v>0.172489611623869</v>
+        <v>-2.53495183204868</v>
       </c>
       <c r="X14" t="n">
         <v>3</v>
@@ -1633,46 +1633,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17041190</v>
       </c>
       <c r="D15" t="n">
-        <v>15940000</v>
+        <v>20160540</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
+      <c r="F15" t="n">
+        <v>19386160</v>
       </c>
       <c r="G15" t="n">
-        <v>6838328</v>
+        <v>20495910</v>
       </c>
       <c r="H15" t="n">
-        <v>13688880</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#N/A</v>
+        <v>19678080</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24.0225227478477</v>
       </c>
       <c r="J15" t="n">
-        <v>23.9261482935399</v>
+        <v>24.265030946149</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L15" t="e">
-        <v>#N/A</v>
+      <c r="L15" t="n">
+        <v>24.208523727708</v>
       </c>
       <c r="M15" t="n">
-        <v>22.7052121925378</v>
+        <v>24.2888327099706</v>
       </c>
       <c r="N15" t="n">
-        <v>23.7065010768741</v>
+        <v>24.2300861272867</v>
       </c>
       <c r="O15" t="e">
         <v>#N/A</v>
@@ -1713,81 +1713,161 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>188298915</v>
+      </c>
+      <c r="D16" t="n">
+        <v>160929378</v>
+      </c>
+      <c r="E16" t="n">
+        <v>158430322</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2202540366</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2367397848</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2279021515</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27.4884494461003</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27.2618524762484</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27.239273238535</v>
+      </c>
+      <c r="L16" t="n">
+        <v>31.0365213136742</v>
+      </c>
+      <c r="M16" t="n">
+        <v>31.1406550294737</v>
+      </c>
+      <c r="N16" t="n">
+        <v>31.0857673983513</v>
+      </c>
+      <c r="O16" t="n">
+        <v>31.0876479138331</v>
+      </c>
+      <c r="P16" t="n">
+        <v>27.3298583869612</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>44.1793276296198</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0000925544371497299</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.000388706762689261</v>
+      </c>
+      <c r="T16" t="n">
+        <v>13.4912705637823</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0741220032073575</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.45878646166529</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.05679259207843</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="n">
-        <v>64759632</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53367728</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60332520</v>
-      </c>
-      <c r="F16" t="n">
-        <v>58853440</v>
-      </c>
-      <c r="G16" t="n">
-        <v>62984728</v>
-      </c>
-      <c r="H16" t="n">
-        <v>60534832</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25.9485914516852</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25.6694642576456</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25.8464325070695</v>
-      </c>
-      <c r="L16" t="n">
-        <v>25.8106234078677</v>
-      </c>
-      <c r="M16" t="n">
-        <v>25.9084987228302</v>
-      </c>
-      <c r="N16" t="n">
-        <v>25.8512621783888</v>
-      </c>
-      <c r="O16" t="n">
-        <v>25.8567947696956</v>
-      </c>
-      <c r="P16" t="n">
-        <v>25.8214960721334</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.408847988878684</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.715351772062022</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.938111873128734</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.02192716928869</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.978543315074051</v>
-      </c>
-      <c r="V16" t="n">
-        <v>-0.275304872879686</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.34590226800396</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z16" t="e">
+      <c r="C17" t="n">
+        <v>6602400</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8191120</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6974100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19808180</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20498483</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12605540</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22.6545591148121</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22.9656292993312</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.7335756200562</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24.2395929939292</v>
+      </c>
+      <c r="M17" t="n">
+        <v>24.2890138105589</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23.5875545863457</v>
+      </c>
+      <c r="O17" t="n">
+        <v>24.0387204636113</v>
+      </c>
+      <c r="P17" t="n">
+        <v>22.7845880113998</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.12829381137506</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0191032952326064</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0327485061130395</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.43077575775395</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.411391300415142</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.417057111980596</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.09120779244236</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/tests/testthat/testdata/result_ttest.xlsx
+++ b/tests/testthat/testdata/result_ttest.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">FEAHPNDLYVEGLPENIPFR</t>
   </si>
   <si>
-    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8/Q9ESZ8</t>
+    <t xml:space="preserve">G3UYD0/G3UYJ6/Q3UHU8</t>
   </si>
   <si>
     <t xml:space="preserve">LPNSVLGR</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">QHIEKAK</t>
   </si>
   <si>
-    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1/Q91ZU6/S4R1P5</t>
+    <t xml:space="preserve">A0A087WPR7/A0A087WSP0/E9Q9X1</t>
   </si>
   <si>
     <t xml:space="preserve">RLDETPDGRK</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">VVAGVANALAHK</t>
   </si>
   <si>
-    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042/P68871</t>
+    <t xml:space="preserve">contaminant_HBB_HUMAN/P02042</t>
   </si>
   <si>
     <t xml:space="preserve">YTPLYPFR</t>
